--- a/v3/example/Type.xlsx
+++ b/v3/example/Type.xlsx
@@ -130,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -155,23 +155,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,65 +166,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +179,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -262,6 +235,50 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,75 +523,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -615,8 +550,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A12:E14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/v3/example/Type.xlsx
+++ b/v3/example/Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>种类</t>
   </si>
@@ -31,15 +31,12 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>数组</t>
+    <t>数组切割</t>
   </si>
   <si>
     <t>值</t>
   </si>
   <si>
-    <t>切割符</t>
-  </si>
-  <si>
     <t>表头</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>|</t>
@@ -1102,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1116,7 +1110,7 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,120 +1131,114 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="3"/>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1258,19 +1246,19 @@
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1278,19 +1266,19 @@
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1298,19 +1286,19 @@
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1318,19 +1306,19 @@
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>

--- a/v3/example/Type.xlsx
+++ b/v3/example/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="28080" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,6 +157,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -181,14 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,97 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,19 +308,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,151 +410,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,9 +519,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,43 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,17 +597,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/v3/example/Type.xlsx
+++ b/v3/example/Type.xlsx
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/v3/example/Type.xlsx
+++ b/v3/example/Type.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\v3\example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>种类</t>
   </si>
@@ -116,19 +121,21 @@
   </si>
   <si>
     <t>Mercy</t>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,151 +156,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,198 +171,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -516,251 +199,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,61 +219,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1090,19 +487,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -1110,7 +507,7 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1132,8 +529,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1150,8 +550,11 @@
         <v>11</v>
       </c>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +572,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +590,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +608,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +629,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1324,21 +727,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1346,7 +749,8 @@
       <c r="E14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>